--- a/traitements_marchandises/SITC/Définitions sitc18_rev3.xlsx
+++ b/traitements_marchandises/SITC/Définitions sitc18_rev3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumedaudin/Documents/Recherche/Commerce International Français XVIIIe.xls/Balance du commerce/Retranscriptions_Commerce_France/toflit18_data_GIT/traitements_marchandises/SITC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumedaudin/Répertoires Git/toflit18_data_GIT/traitements_marchandises/SITC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004BA650-5B6C-C847-87C6-6FD7A16DD838}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C920689E-4F8C-DD44-A1ED-932A80D01AB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="52820" windowHeight="27720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Définitions sitc18_rev3" sheetId="1" r:id="rId1"/>
@@ -216,9 +216,6 @@
   </si>
   <si>
     <t>Wool threads and fabrics</t>
-  </si>
-  <si>
-    <t>Filés ou tissés, y compris rubanerie et passementerie de fibres animales hors soie</t>
   </si>
   <si>
     <t>6f</t>
@@ -390,6 +387,9 @@
   </si>
   <si>
     <t>error</t>
+  </si>
+  <si>
+    <t>Filés ou tissés, y compris rubanerie et passementerie de fibres animales hors soie. Y compris, "drap" et draperie sans précision (voir https://toflit18.hypotheses.org, décembre 2020)</t>
   </si>
 </sst>
 </file>
@@ -750,8 +750,8 @@
   </sheetPr>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -790,7 +790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="70" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="42" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>10</v>
       </c>
@@ -813,7 +813,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="182" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="126" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>20</v>
       </c>
@@ -833,7 +833,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="56" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="42" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>100</v>
       </c>
@@ -902,7 +902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="56" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="42" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>400</v>
       </c>
@@ -945,7 +945,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="112" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="70" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>610</v>
       </c>
@@ -968,7 +968,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="154" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="98" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>630</v>
       </c>
@@ -991,7 +991,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="56" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="42" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>640</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>55</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>52</v>
@@ -1057,27 +1057,27 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="42" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>653</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -1085,68 +1085,68 @@
         <v>654</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="56" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="42" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>655</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="70" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="56" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>656</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="256" customHeight="1" x14ac:dyDescent="0.15">
@@ -1154,22 +1154,22 @@
         <v>670</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="G18" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="240" customHeight="1" x14ac:dyDescent="0.15">
@@ -1177,19 +1177,19 @@
         <v>660</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="G19" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -1200,16 +1200,16 @@
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="G20" s="1">
         <v>7</v>
@@ -1223,13 +1223,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="G21" s="1">
         <v>8</v>
@@ -1240,19 +1240,19 @@
         <v>910</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="G22" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="14" x14ac:dyDescent="0.15">
@@ -1260,39 +1260,39 @@
         <v>920</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="G23" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="28" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>930</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="G24" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14" x14ac:dyDescent="0.15">
@@ -1300,21 +1300,21 @@
         <v>999</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="G25" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="G26" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
